--- a/analysis/queryResults/Number_of_Ratings_Per_Rating_Class_results_04022018_beforeRemoving_NULL_ERR.xlsx
+++ b/analysis/queryResults/Number_of_Ratings_Per_Rating_Class_results_04022018_beforeRemoving_NULL_ERR.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Number_of_Ratings_Per_Rating_Cl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rating</t>
   </si>
@@ -42,10 +42,6 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Err
-</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -53,6 +49,12 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>attempts_percentage</t>
+  </si>
+  <si>
+    <t>Err</t>
   </si>
 </sst>
 </file>
@@ -536,11 +538,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -614,6 +617,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Ratings Percentages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Before Removing Err and Null</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -905,8 +938,7 @@
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Err
-</c:v>
+                  <c:v>Err</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>F</c:v>
@@ -1021,7 +1053,438 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ratings Distribution Before Removing Err and Null for All Attempts</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Number_of_Ratings_Per_Rating_Cl!$A$2,Number_of_Ratings_Per_Rating_Cl!$A$3,Number_of_Ratings_Per_Rating_Cl!$A$4,Number_of_Ratings_Per_Rating_Cl!$A$5,Number_of_Ratings_Per_Rating_Cl!$A$6,Number_of_Ratings_Per_Rating_Cl!$A$7,Number_of_Ratings_Per_Rating_Cl!$A$8,Number_of_Ratings_Per_Rating_Cl!$A$9,Number_of_Ratings_Per_Rating_Cl!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A-</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Err</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NULL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Number_of_Ratings_Per_Rating_Cl!$C$2,Number_of_Ratings_Per_Rating_Cl!$C$3,Number_of_Ratings_Per_Rating_Cl!$C$4,Number_of_Ratings_Per_Rating_Cl!$C$5,Number_of_Ratings_Per_Rating_Cl!$C$6,Number_of_Ratings_Per_Rating_Cl!$C$7,Number_of_Ratings_Per_Rating_Cl!$C$8,Number_of_Ratings_Per_Rating_Cl!$C$9,Number_of_Ratings_Per_Rating_Cl!$C$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.30968250483925686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9213545928039749E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8922591846101656E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10892817944163956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8981261599249669E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3930873460916771E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.528227335315599E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0113148809642592E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22494562072199717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="879065120"/>
+        <c:axId val="879059136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="879065120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879059136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879059136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879065120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1592,20 +2055,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1619,6 +2585,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1890,96 +2886,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>62074</v>
       </c>
+      <c r="C2">
+        <f>B2/200444</f>
+        <v>0.30968250483925686</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>11869</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">B3/200444</f>
+        <v>5.9213545928039749E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>17824</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>8.8922591846101656E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>21834</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.10892817944163956</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>9818</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.8981261599249669E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>14819</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.3930873460916771E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>11081</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.528227335315599E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>6036</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.0113148809642592E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>45089</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.22494562072199717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>200444</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/Number_of_Ratings_Per_Rating_Class_results_04022018_beforeRemoving_NULL_ERR.xlsx
+++ b/analysis/queryResults/Number_of_Ratings_Per_Rating_Class_results_04022018_beforeRemoving_NULL_ERR.xlsx
@@ -1090,7 +1090,7 @@
               <a:rPr lang="en-GB" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Ratings Distribution Before Removing Err and Null for All Attempts</a:t>
+              <a:t>Ratings Distribution Before Removing Error and Null Ratings</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB">
               <a:effectLst/>
@@ -1289,11 +1289,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="879065120"/>
-        <c:axId val="879059136"/>
+        <c:axId val="1199624768"/>
+        <c:axId val="1199624224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="879065120"/>
+        <c:axId val="1199624768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879059136"/>
+        <c:crossAx val="1199624224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="879059136"/>
+        <c:axId val="1199624224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879065120"/>
+        <c:crossAx val="1199624768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,7 +1439,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2564,14 +2564,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2594,14 +2594,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
